--- a/German Universities Details.xlsx
+++ b/German Universities Details.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunain Sajid\Downloads\Admission  Applications\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E6F7E-90F8-454E-B0D1-4E8FD00C6D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="University Programs Details" sheetId="4" r:id="rId1"/>
+    <sheet name="University Details 2023" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Calendar_Year" localSheetId="0">'University Programs Details'!$P$1</definedName>
@@ -22,7 +17,7 @@
     <definedName name="Title1" localSheetId="0">ToDoList2[[#Headers],[Name]]</definedName>
     <definedName name="Title1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="381">
   <si>
     <t>University List</t>
   </si>
@@ -979,11 +974,258 @@
   <si>
     <t>Winter Session 2022/2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">    University Details</t>
+  </si>
+  <si>
+    <t>University of Stuttgart • Stuttgart</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
+    <t>full-time
+part-time (study alongside work)</t>
+  </si>
+  <si>
+    <t>Mode of study</t>
+  </si>
+  <si>
+    <t>Less than 50% online</t>
+  </si>
+  <si>
+    <t>Programme duration</t>
+  </si>
+  <si>
+    <t>4 Semester</t>
+  </si>
+  <si>
+    <t>Application deadline</t>
+  </si>
+  <si>
+    <t>15 July for the summer semester</t>
+  </si>
+  <si>
+    <t>tuition fees</t>
+  </si>
+  <si>
+    <t>non-EU citizens pay a tuition of 1,500 EUR per semester</t>
+  </si>
+  <si>
+    <t>Bachelor's degree with a programme duration of at least six semesters in computer science, software engineering or in a closely related subject
+Examination results from the Bachelor's programme that support the qualification of the applicant for the Master's programme in computer science
+Adequate knowledge of the English language (level C1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 EUR </t>
+  </si>
+  <si>
+    <t>https://www.uni-tuttgart.de/en/study/application/online/index.html</t>
+  </si>
+  <si>
+    <t>full-time</t>
+  </si>
+  <si>
+    <t>4 semesters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 May for non-EU citizens, For the winter semester:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>330 EUR</t>
+  </si>
+  <si>
+    <t>Bachelor of Science degree in computer science
+Additional qualification requirements for the Bachelor's degree (credits in theoretical computer science, mathematics, programming, etc.)
+Mandatory documents (in English):
+Bachelor's degree plus up-to-date transcript of records
+TOEFL or IELTS result
+statement of purpose
+curriculum vitae
+a letter of motivation</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/7606/#tab_overview</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/4439/#tab_overview</t>
+  </si>
+  <si>
+    <t>University of Bonn • Bonn</t>
+  </si>
+  <si>
+    <t>Paderborn University • Paderborn</t>
+  </si>
+  <si>
+    <t>Winter semester (starting in October): 31 May
+Summer semester (starting in April): 30 November</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>310 EUR</t>
+  </si>
+  <si>
+    <t>Semester Fee</t>
+  </si>
+  <si>
+    <t>BSc in computer science or a related subject
+General higher education entrance certificate or equivalent
+A GRE test is required if the grade of your Bachelor degree has a value of 1.5 or higher when converted to the German grading system.
+Your Bachelor's degree should contain at least 20 credits in Software Engineering, at least 20 credits in Theoretical Computer Science, at least 15 credits in Technical Informatics, at least 15 credits in Basic Mathematics of Computer Science, and at least 8 credits in Human-Computer Interaction.</t>
+  </si>
+  <si>
+    <t>https://www.uni-assist.de/online/?lang=en</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/5616/#tab_overview</t>
+  </si>
+  <si>
+    <t>Not mention</t>
+  </si>
+  <si>
+    <t>Deggendorf Institute of Technology • Deggendorf</t>
+  </si>
+  <si>
+    <t>MSc Applied Computer Science</t>
+  </si>
+  <si>
+    <t>3 semesters</t>
+  </si>
+  <si>
+    <t>15 April to 15 July for October entries (winter semester)
+15 November to 15 January for March entries (summer semester)</t>
+  </si>
+  <si>
+    <t>Bachelor’s degree in computer science or a similar field
+Admission test</t>
+  </si>
+  <si>
+    <t>Minimum Requirement</t>
+  </si>
+  <si>
+    <t>https://www.th-deg.de/en/apply#international</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/4870/#overview</t>
+  </si>
+  <si>
+    <t>62 EUR student service fee per semester</t>
+  </si>
+  <si>
+    <t>Bingen Technical University of Applied Sciences • Bingen am Rhein</t>
+  </si>
+  <si>
+    <t>Non-EU applicants: 15 July for the following winter semester</t>
+  </si>
+  <si>
+    <t>230 EUR appx</t>
+  </si>
+  <si>
+    <t>A Bachelor’s degree or diploma in a computer science course of study or a related degree course of study and eligibility under Section 65 of the German Higher Education Act by possessing an entrance qualification for a university of applied sciences, a general higher education entrance qualification (Fach-/Hochschulreife) or similar
+Final grade of ECTS Grade B or better (alternatively a grade point average of 2.5 or better)
+At least 210 credits (in exceptional cases, 180 credits with additional qualifications)</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/8324/#overview</t>
+  </si>
+  <si>
+    <t>Technische Hochschule Bingen | Bingen Technical University of Applied Sciences
+Studierendensekretariat | Registrar's Office
+Berlinstraße 109
+55411 Bingen / Rhein</t>
+  </si>
+  <si>
+    <t>University of Passau • Passau</t>
+  </si>
+  <si>
+    <t>The application round for the April intake starts in mid-November of the previous year; for the October intake, the application round starts in early April.</t>
+  </si>
+  <si>
+    <t>http://www.uni-passau.de/en/apply/?pk_campaign=DAADIPG</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/4455/#overview</t>
+  </si>
+  <si>
+    <t>87 EUR per semester The semester contribution fee</t>
+  </si>
+  <si>
+    <t>Applicants are required to have a first university degree (e.g. Bachelor's degree) in computer science, Internet computing, or a related discipline with a minimum computer science content of 110 ECTS credits, obtained after completing a three-year full-time undergraduate programme. This degree should be ranked among the best 70% of your cohort, or with a final result of, or equivalent to, 2.7 (or better) on the German grading scale.</t>
+  </si>
+  <si>
+    <t>No formal proof is required, but English skills at a B2 level are expected.</t>
+  </si>
+  <si>
+    <t>RPTU University of Kaiserslautern-Landau • Kaiserslautern</t>
+  </si>
+  <si>
+    <t>For international applicants applying from abroad who need a visa:
+30 April for the following winter semester
+31 October for the following summer semester</t>
+  </si>
+  <si>
+    <t>Qualified Bachelor's or equivalent degree
+Language proficiency in English
+GRE test is strongly recommended</t>
+  </si>
+  <si>
+    <t>7 bands</t>
+  </si>
+  <si>
+    <t>6 bands</t>
+  </si>
+  <si>
+    <t>6.5 bands</t>
+  </si>
+  <si>
+    <t>5.5 bands</t>
+  </si>
+  <si>
+    <t>6.0 bands</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/3629/#overview</t>
+  </si>
+  <si>
+    <t>https://applymsc.informatik.uni-kl.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 EUR </t>
+  </si>
+  <si>
+    <t>University of Siegen • Siegen</t>
+  </si>
+  <si>
+    <t>Bachelor's degree in computer science or electrical engineering
+The minimum grade of the Bachelor's degree is "satisfactory" (3.0). The responsible board of examiners will make the decision on the equivalence of degrees acquired at other higher education institutions or in other degree courses and on the suitability for the Master's programme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+30 April 2023 at midnight
+Non-EU applicants are advised to apply as early as possible, allowing for some delay to complete the visa process.</t>
+  </si>
+  <si>
+    <t>http://www.master-cs.eti.uni-siegen.de/</t>
+  </si>
+  <si>
+    <t>https://www2.daad.de/deutschland/studienangebote/international-programmes/en/detail/4591/#overview</t>
+  </si>
+  <si>
+    <t>285 EUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -992,7 +1234,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1096,8 +1338,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,8 +1419,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1214,6 +1469,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1251,7 +1539,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1374,24 +1662,63 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Calendar Year" xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Calendar Year" xfId="14"/>
     <cellStyle name="Comma" xfId="5" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="6" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Currency" xfId="7" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Currency [0]" xfId="8" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Done/Overdue" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Date" xfId="11"/>
+    <cellStyle name="Done/Overdue" xfId="13"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -1417,7 +1744,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1436,7 +1762,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1455,7 +1780,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1474,7 +1798,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1493,7 +1816,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1512,7 +1834,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1531,7 +1852,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1550,7 +1870,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1569,7 +1888,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1588,7 +1906,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1598,7 +1915,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1617,7 +1933,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1636,7 +1951,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
@@ -1656,7 +1970,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1675,7 +1988,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1685,7 +1997,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
@@ -1696,27 +2007,10 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B729"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1732,7 +2026,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1751,7 +2044,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Century Gothic"/>
-        <family val="1"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1770,6 +2062,22 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B729"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1939,12 +2247,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
-    <tableStyle name="To Do List" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="To Do List" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="34"/>
       <tableStyleElement type="headerRow" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="To Do List Pivot" table="0" count="11">
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
@@ -1970,29 +2278,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{521E2B42-C9E2-419E-9A8D-6599D5066C72}" name="ToDoList2" displayName="ToDoList2" ref="B3:R145" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" dataCellStyle="Normal">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:R145">
-    <sortCondition sortBy="cellColor" ref="C4:C145" dxfId="18"/>
-    <sortCondition sortBy="cellColor" ref="C4:C145" dxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:R145" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="Normal">
+  <sortState ref="B4:R145">
+    <sortCondition sortBy="cellColor" ref="C4:C145" dxfId="20"/>
+    <sortCondition sortBy="cellColor" ref="C4:C145" dxfId="19"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{1ED4D7DF-1BA2-4B9B-986C-9869E8F21646}" name="Name" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{1837265B-DE2A-44AF-BCDE-4F159D1BE0DA}" name="QS Ranking" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{BFD2DADF-98DE-4236-9349-E188C85DB2E6}" name="Degree Name" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{978BAE33-5185-4204-A1DA-3D9E6E1A0B1A}" name="Entry Requirements" dataDxfId="13" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{7CD8D175-9A92-426A-8E61-3752F6650251}" name="Winter Application Deadline" dataDxfId="12" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{A67D2DB1-5847-4BBE-9BA9-9023A99AF99F}" name="IELTS Bands" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9BFAA7D9-96D7-4854-B592-899B2A15CB1D}" name="Minimum GPA Requirement(German Scale)" dataDxfId="10" dataCellStyle="Done/Overdue"/>
-    <tableColumn id="10" xr3:uid="{466F6522-8D34-453D-86E1-BC3A9CA157DB}" name="City" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{04ADB8F0-0427-4AD1-A4F2-A684B6D6A1B2}" name="Admission Type" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{5A3DAC00-8D90-481D-BDE5-811360A96EBC}" name="How to apply" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{648FAE09-7B23-41A7-9276-C89174E146F5}" name="GRE" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{CD39769E-BA78-4BD4-9E7A-7C0388818722}" name="Fee" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{6074C430-4D61-4ED9-B55E-DE58069A28D2}" name="Study Focus" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{DB8B948D-A71C-4962-BC6E-D8830F6145C0}" name="Deferment / Points to be noted" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{EEB58314-E460-4E93-89D1-21DB8E5AE556}" name="Application Status/Reasons for Failure to apply" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="16" xr3:uid="{03F1EFDC-09AD-4AE1-A0F1-CEE178BF5C9E}" name="Daad Link" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{04A897FF-D694-4012-901D-88E6B9C590E4}" name="Uni Link" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Name" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="QS Ranking" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Degree Name" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Entry Requirements" dataDxfId="13" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Winter Application Deadline" dataDxfId="12" dataCellStyle="Date"/>
+    <tableColumn id="5" name="IELTS Bands" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="Minimum GPA Requirement(German Scale)" dataDxfId="10" dataCellStyle="Done/Overdue"/>
+    <tableColumn id="10" name="City" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Admission Type" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="How to apply" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="GRE" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Fee" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Study Focus" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="Deferment / Points to be noted" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="Application Status/Reasons for Failure to apply" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Daad Link" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="Uni Link" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2046,7 +2354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Century Gothic">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -2081,7 +2389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -2299,79 +2607,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82A4212-C5CB-4B21-935E-F6E3B524B23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DD145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B4:R145"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="5" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="40.25" customWidth="1"/>
-    <col min="9" max="9" width="30.625" customWidth="1"/>
-    <col min="10" max="14" width="27.375" customWidth="1"/>
-    <col min="15" max="15" width="28.625" customWidth="1"/>
-    <col min="16" max="16" width="56.625" customWidth="1"/>
-    <col min="17" max="17" width="27.375" customWidth="1"/>
-    <col min="18" max="18" width="113.75" customWidth="1"/>
-    <col min="19" max="108" width="8.75" style="38"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="56.5703125" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" customWidth="1"/>
+    <col min="18" max="18" width="113.7109375" customWidth="1"/>
+    <col min="19" max="108" width="8.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:108" ht="30" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="52" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:108" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:108" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:108" ht="84" customHeight="1" thickBot="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="1:108" ht="30" customHeight="1" thickTop="1">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A4"/>
       <c r="B4" s="29" t="s">
         <v>293</v>
@@ -2564,7 +2872,7 @@
       <c r="DC4" s="38"/>
       <c r="DD4" s="38"/>
     </row>
-    <row r="5" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A5"/>
       <c r="B5" s="29" t="s">
         <v>7</v>
@@ -2704,7 +3012,7 @@
       <c r="DC5" s="38"/>
       <c r="DD5" s="38"/>
     </row>
-    <row r="6" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A6"/>
       <c r="B6" s="29" t="s">
         <v>1</v>
@@ -2844,7 +3152,7 @@
       <c r="DC6" s="38"/>
       <c r="DD6" s="38"/>
     </row>
-    <row r="7" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A7"/>
       <c r="B7" s="29" t="s">
         <v>38</v>
@@ -2984,7 +3292,7 @@
       <c r="DC7" s="38"/>
       <c r="DD7" s="38"/>
     </row>
-    <row r="8" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A8"/>
       <c r="B8" s="29" t="s">
         <v>281</v>
@@ -3110,7 +3418,7 @@
       <c r="DC8" s="38"/>
       <c r="DD8" s="38"/>
     </row>
-    <row r="9" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A9"/>
       <c r="B9" s="29" t="s">
         <v>213</v>
@@ -3250,7 +3558,7 @@
       <c r="DC9" s="38"/>
       <c r="DD9" s="38"/>
     </row>
-    <row r="10" spans="1:108" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:108" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A10"/>
       <c r="B10" s="29" t="s">
         <v>256</v>
@@ -3390,7 +3698,7 @@
       <c r="DC10" s="39"/>
       <c r="DD10" s="39"/>
     </row>
-    <row r="11" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A11"/>
       <c r="B11" s="29" t="s">
         <v>56</v>
@@ -3530,7 +3838,7 @@
       <c r="DC11" s="38"/>
       <c r="DD11" s="38"/>
     </row>
-    <row r="12" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A12"/>
       <c r="B12" s="29" t="s">
         <v>56</v>
@@ -3670,7 +3978,7 @@
       <c r="DC12" s="38"/>
       <c r="DD12" s="38"/>
     </row>
-    <row r="13" spans="1:108" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:108" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="A13"/>
       <c r="B13" s="29" t="s">
         <v>60</v>
@@ -3720,7 +4028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:108" ht="30" customHeight="1">
       <c r="B14" s="42" t="s">
         <v>75</v>
       </c>
@@ -3857,7 +4165,7 @@
       <c r="DC14"/>
       <c r="DD14"/>
     </row>
-    <row r="15" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:108" ht="30" customHeight="1">
       <c r="B15" s="45" t="s">
         <v>26</v>
       </c>
@@ -3996,7 +4304,7 @@
       <c r="DC15"/>
       <c r="DD15"/>
     </row>
-    <row r="16" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:108" ht="30" customHeight="1">
       <c r="B16" s="45" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +4443,7 @@
       <c r="DC16"/>
       <c r="DD16"/>
     </row>
-    <row r="17" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" ht="30" customHeight="1">
       <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
@@ -4272,7 +4580,7 @@
       <c r="DC17"/>
       <c r="DD17"/>
     </row>
-    <row r="18" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A18"/>
       <c r="B18" s="20" t="s">
         <v>235</v>
@@ -4320,7 +4628,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" s="41" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>3</v>
@@ -4370,7 +4678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A20"/>
       <c r="B20" s="20" t="s">
         <v>209</v>
@@ -4510,7 +4818,7 @@
       <c r="DC20" s="38"/>
       <c r="DD20" s="38"/>
     </row>
-    <row r="21" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A21"/>
       <c r="B21" s="20" t="s">
         <v>170</v>
@@ -4558,7 +4866,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A22"/>
       <c r="B22" s="22" t="s">
         <v>224</v>
@@ -4696,7 +5004,7 @@
       <c r="DC22" s="38"/>
       <c r="DD22" s="38"/>
     </row>
-    <row r="23" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A23"/>
       <c r="B23" s="20" t="s">
         <v>9</v>
@@ -4836,7 +5144,7 @@
       <c r="DC23" s="38"/>
       <c r="DD23" s="38"/>
     </row>
-    <row r="24" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A24"/>
       <c r="B24" s="20" t="s">
         <v>9</v>
@@ -4976,7 +5284,7 @@
       <c r="DC24" s="38"/>
       <c r="DD24" s="38"/>
     </row>
-    <row r="25" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A25"/>
       <c r="B25" s="20" t="s">
         <v>72</v>
@@ -5024,7 +5332,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A26"/>
       <c r="B26" s="20" t="s">
         <v>41</v>
@@ -5072,7 +5380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A27"/>
       <c r="B27" s="22" t="s">
         <v>263</v>
@@ -5196,7 +5504,7 @@
       <c r="DC27" s="38"/>
       <c r="DD27" s="38"/>
     </row>
-    <row r="28" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A28"/>
       <c r="B28" s="20" t="s">
         <v>70</v>
@@ -5244,7 +5552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A29"/>
       <c r="B29" s="20" t="s">
         <v>59</v>
@@ -5382,7 +5690,7 @@
       <c r="DC29" s="38"/>
       <c r="DD29" s="38"/>
     </row>
-    <row r="30" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A30"/>
       <c r="B30" s="20" t="s">
         <v>40</v>
@@ -5520,7 +5828,7 @@
       <c r="DC30" s="38"/>
       <c r="DD30" s="38"/>
     </row>
-    <row r="31" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A31"/>
       <c r="B31" s="20" t="s">
         <v>40</v>
@@ -5568,7 +5876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A32"/>
       <c r="B32" s="20" t="s">
         <v>168</v>
@@ -5616,7 +5924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>50</v>
@@ -5754,7 +6062,7 @@
       <c r="DC33" s="38"/>
       <c r="DD33" s="38"/>
     </row>
-    <row r="34" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="20" t="s">
         <v>8</v>
@@ -5890,7 +6198,7 @@
       <c r="DC34" s="38"/>
       <c r="DD34" s="38"/>
     </row>
-    <row r="35" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A35"/>
       <c r="B35" s="20" t="s">
         <v>30</v>
@@ -5924,7 +6232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A36"/>
       <c r="B36" s="13" t="s">
         <v>219</v>
@@ -5972,7 +6280,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A37"/>
       <c r="B37" s="13" t="s">
         <v>229</v>
@@ -6020,7 +6328,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A38"/>
       <c r="B38" s="13" t="s">
         <v>48</v>
@@ -6068,7 +6376,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A39"/>
       <c r="B39" s="13" t="s">
         <v>270</v>
@@ -6086,7 +6394,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A40"/>
       <c r="B40" s="13" t="s">
         <v>61</v>
@@ -6134,7 +6442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A41"/>
       <c r="B41" s="13" t="s">
         <v>37</v>
@@ -6180,7 +6488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A42"/>
       <c r="B42" s="13" t="s">
         <v>77</v>
@@ -6228,7 +6536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A43"/>
       <c r="B43" s="13" t="s">
         <v>270</v>
@@ -6258,7 +6566,7 @@
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
     </row>
-    <row r="44" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A44"/>
       <c r="B44" s="13" t="s">
         <v>2</v>
@@ -6306,7 +6614,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A45"/>
       <c r="B45" s="13" t="s">
         <v>76</v>
@@ -6444,7 +6752,7 @@
       <c r="DC45" s="38"/>
       <c r="DD45" s="38"/>
     </row>
-    <row r="46" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A46"/>
       <c r="B46" s="13" t="s">
         <v>45</v>
@@ -6494,7 +6802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A47"/>
       <c r="B47" s="13" t="s">
         <v>46</v>
@@ -6544,7 +6852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A48"/>
       <c r="B48" s="13" t="s">
         <v>46</v>
@@ -6592,7 +6900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A49"/>
       <c r="B49" s="13" t="s">
         <v>65</v>
@@ -6642,7 +6950,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A50"/>
       <c r="B50" s="13" t="s">
         <v>36</v>
@@ -6782,7 +7090,7 @@
       <c r="DC50" s="38"/>
       <c r="DD50" s="38"/>
     </row>
-    <row r="51" spans="1:108" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:108" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="A51"/>
       <c r="B51" s="13" t="s">
         <v>6</v>
@@ -6920,7 +7228,7 @@
       <c r="DC51" s="38"/>
       <c r="DD51" s="38"/>
     </row>
-    <row r="52" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:108" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A52"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
@@ -7060,7 +7368,7 @@
       <c r="DC52" s="38"/>
       <c r="DD52" s="38"/>
     </row>
-    <row r="53" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A53"/>
       <c r="B53" s="13" t="s">
         <v>68</v>
@@ -7108,7 +7416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:108" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A54"/>
       <c r="B54" s="13" t="s">
         <v>271</v>
@@ -7152,7 +7460,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:108" ht="30" customHeight="1">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
@@ -7171,7 +7479,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:108" ht="30" customHeight="1">
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="6"/>
@@ -7190,7 +7498,7 @@
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
-    <row r="57" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:108" ht="30" customHeight="1">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
@@ -7209,7 +7517,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:108" ht="30" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="6"/>
@@ -7228,7 +7536,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:108" ht="30" customHeight="1">
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="6"/>
@@ -7247,7 +7555,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:108" ht="30" customHeight="1">
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="6"/>
@@ -7266,7 +7574,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:108" ht="30" customHeight="1">
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="6"/>
@@ -7285,7 +7593,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:108" ht="30" customHeight="1">
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -7304,7 +7612,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:108" ht="30" customHeight="1">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -7323,7 +7631,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:108" ht="30" customHeight="1">
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -7342,7 +7650,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" ht="30" customHeight="1">
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
@@ -7361,7 +7669,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" ht="30" customHeight="1">
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -7380,7 +7688,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" ht="30" customHeight="1">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -7399,7 +7707,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" ht="30" customHeight="1">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
@@ -7418,7 +7726,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" ht="30" customHeight="1">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
@@ -7437,7 +7745,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" ht="30" customHeight="1">
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -7456,7 +7764,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" ht="30" customHeight="1">
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
@@ -7475,7 +7783,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" ht="30" customHeight="1">
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
@@ -7494,7 +7802,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="30" customHeight="1">
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -7513,7 +7821,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" ht="30" customHeight="1">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
@@ -7532,7 +7840,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" ht="30" customHeight="1">
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
@@ -7551,7 +7859,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" ht="30" customHeight="1">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -7570,7 +7878,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" ht="30" customHeight="1">
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
@@ -7589,7 +7897,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" ht="30" customHeight="1">
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
@@ -7608,7 +7916,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" ht="30" customHeight="1">
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
@@ -7627,7 +7935,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" ht="30" customHeight="1">
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
@@ -7646,7 +7954,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:18" ht="30" customHeight="1">
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="6"/>
@@ -7665,7 +7973,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18" ht="30" customHeight="1">
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="6"/>
@@ -7684,7 +7992,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18" ht="30" customHeight="1">
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="D83" s="6"/>
@@ -7703,7 +8011,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18" ht="30" customHeight="1">
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="D84" s="6"/>
@@ -7722,7 +8030,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18" ht="30" customHeight="1">
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="D85" s="6"/>
@@ -7741,7 +8049,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:18" ht="30" customHeight="1">
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="6"/>
@@ -7760,7 +8068,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
     </row>
-    <row r="87" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:18" ht="30" customHeight="1">
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="6"/>
@@ -7779,7 +8087,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
     </row>
-    <row r="88" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:18" ht="30" customHeight="1">
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="6"/>
@@ -7798,7 +8106,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
     </row>
-    <row r="89" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18" ht="30" customHeight="1">
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="6"/>
@@ -7817,7 +8125,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18" ht="30" customHeight="1">
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="6"/>
@@ -7836,7 +8144,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18" ht="30" customHeight="1">
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="6"/>
@@ -7855,7 +8163,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
     </row>
-    <row r="92" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18" ht="30" customHeight="1">
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="6"/>
@@ -7874,7 +8182,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:18" ht="30" customHeight="1">
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="6"/>
@@ -7893,7 +8201,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
     </row>
-    <row r="94" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:18" ht="30" customHeight="1">
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="6"/>
@@ -7912,7 +8220,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
     </row>
-    <row r="95" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:18" ht="30" customHeight="1">
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="6"/>
@@ -7931,7 +8239,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18" ht="30" customHeight="1">
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="6"/>
@@ -7950,7 +8258,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
     </row>
-    <row r="97" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18" ht="30" customHeight="1">
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="6"/>
@@ -7969,7 +8277,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
     </row>
-    <row r="98" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18" ht="30" customHeight="1">
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="6"/>
@@ -7988,7 +8296,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
     </row>
-    <row r="99" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18" ht="30" customHeight="1">
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="6"/>
@@ -8007,7 +8315,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
     </row>
-    <row r="100" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:18" ht="30" customHeight="1">
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="6"/>
@@ -8026,7 +8334,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
     </row>
-    <row r="101" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:18" ht="30" customHeight="1">
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
       <c r="D101" s="6"/>
@@ -8045,7 +8353,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
     </row>
-    <row r="102" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" ht="30" customHeight="1">
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
@@ -8064,7 +8372,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
     </row>
-    <row r="103" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" ht="30" customHeight="1">
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
@@ -8083,7 +8391,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
     </row>
-    <row r="104" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" ht="30" customHeight="1">
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
@@ -8102,7 +8410,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
     </row>
-    <row r="105" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:18" ht="30" customHeight="1">
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
@@ -8121,7 +8429,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:18" ht="30" customHeight="1">
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
@@ -8140,7 +8448,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
     </row>
-    <row r="107" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" ht="30" customHeight="1">
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
@@ -8159,7 +8467,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
     </row>
-    <row r="108" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" ht="30" customHeight="1">
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
@@ -8178,7 +8486,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
     </row>
-    <row r="109" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" ht="30" customHeight="1">
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
@@ -8197,7 +8505,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" ht="30" customHeight="1">
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
@@ -8216,7 +8524,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
     </row>
-    <row r="111" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" ht="30" customHeight="1">
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
@@ -8235,7 +8543,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
     </row>
-    <row r="112" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" ht="30" customHeight="1">
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
       <c r="D112" s="6"/>
@@ -8254,7 +8562,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
     </row>
-    <row r="113" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" ht="30" customHeight="1">
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
       <c r="D113" s="6"/>
@@ -8273,7 +8581,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
     </row>
-    <row r="114" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" ht="30" customHeight="1">
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
@@ -8292,7 +8600,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
-    <row r="115" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" ht="30" customHeight="1">
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
       <c r="D115" s="6"/>
@@ -8311,7 +8619,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
     </row>
-    <row r="116" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" ht="30" customHeight="1">
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6"/>
@@ -8330,7 +8638,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
     </row>
-    <row r="117" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" ht="30" customHeight="1">
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
       <c r="D117" s="6"/>
@@ -8349,7 +8657,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
     </row>
-    <row r="118" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" ht="30" customHeight="1">
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
       <c r="D118" s="6"/>
@@ -8368,7 +8676,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
     </row>
-    <row r="119" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" ht="30" customHeight="1">
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
       <c r="D119" s="6"/>
@@ -8387,7 +8695,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
     </row>
-    <row r="120" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" ht="30" customHeight="1">
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
       <c r="D120" s="6"/>
@@ -8406,7 +8714,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
     </row>
-    <row r="121" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" ht="30" customHeight="1">
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
       <c r="D121" s="6"/>
@@ -8425,7 +8733,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
     </row>
-    <row r="122" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" ht="30" customHeight="1">
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
       <c r="D122" s="6"/>
@@ -8444,7 +8752,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
     </row>
-    <row r="123" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" ht="30" customHeight="1">
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
       <c r="D123" s="6"/>
@@ -8463,7 +8771,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
     </row>
-    <row r="124" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:18" ht="30" customHeight="1">
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
       <c r="D124" s="6"/>
@@ -8482,7 +8790,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" ht="30" customHeight="1">
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
       <c r="D125" s="6"/>
@@ -8501,7 +8809,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" ht="30" customHeight="1">
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
       <c r="D126" s="6"/>
@@ -8520,7 +8828,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" ht="30" customHeight="1">
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
       <c r="D127" s="6"/>
@@ -8539,7 +8847,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
     </row>
-    <row r="128" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" ht="30" customHeight="1">
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
       <c r="D128" s="6"/>
@@ -8558,7 +8866,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" ht="30" customHeight="1">
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
       <c r="D129" s="6"/>
@@ -8577,7 +8885,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" ht="30" customHeight="1">
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
       <c r="D130" s="6"/>
@@ -8596,7 +8904,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
     </row>
-    <row r="131" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" ht="30" customHeight="1">
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
       <c r="D131" s="6"/>
@@ -8615,7 +8923,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
     </row>
-    <row r="132" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" ht="30" customHeight="1">
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
       <c r="D132" s="6"/>
@@ -8634,7 +8942,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" ht="30" customHeight="1">
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
       <c r="D133" s="6"/>
@@ -8653,7 +8961,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
     </row>
-    <row r="134" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" ht="30" customHeight="1">
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
       <c r="D134" s="6"/>
@@ -8672,7 +8980,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" ht="30" customHeight="1">
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
       <c r="D135" s="6"/>
@@ -8691,7 +8999,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
     </row>
-    <row r="136" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" ht="30" customHeight="1">
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
       <c r="D136" s="6"/>
@@ -8710,7 +9018,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
     </row>
-    <row r="137" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" ht="30" customHeight="1">
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
       <c r="D137" s="6"/>
@@ -8729,7 +9037,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
     </row>
-    <row r="138" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" ht="30" customHeight="1">
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
       <c r="D138" s="6"/>
@@ -8748,7 +9056,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
     </row>
-    <row r="139" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" ht="30" customHeight="1">
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
       <c r="D139" s="6"/>
@@ -8767,7 +9075,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
     </row>
-    <row r="140" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" ht="30" customHeight="1">
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
       <c r="D140" s="6"/>
@@ -8786,7 +9094,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
     </row>
-    <row r="141" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" ht="30" customHeight="1">
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
       <c r="D141" s="6"/>
@@ -8805,7 +9113,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
     </row>
-    <row r="142" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" ht="30" customHeight="1">
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
       <c r="D142" s="6"/>
@@ -8824,7 +9132,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
     </row>
-    <row r="143" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" ht="30" customHeight="1">
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
       <c r="D143" s="6"/>
@@ -8843,7 +9151,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
     </row>
-    <row r="144" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" ht="30" customHeight="1">
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
       <c r="D144" s="6"/>
@@ -8862,7 +9170,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" ht="30" customHeight="1">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="6"/>
@@ -8887,110 +9195,110 @@
     <mergeCell ref="A1:Q2"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation errorStyle="warning" allowBlank="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F9:F17 F124 F105:F106 F95 F23:F28 F86:F89 F81:F83 F61:F62 F46 F30 F58 F6:F7 F20 F36:F37 F39 F55 F53" xr:uid="{0FDABE6C-1DCA-466D-979D-36DE4641AEE0}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G15 G18:G20 G46 G124 G105:G106 G95 G86:G89 G81:G83 G61:G62 G58 G22:G28 G36:G37 G39 G53:G56" xr:uid="{B85205CB-E08F-46CE-8BD9-8BFE8F204317}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="D58 D124 H124 D105:D106 H105:H106 D95 H95 H86:H89 D86:D89 D36:D37 H81:H83 D81:D83 H61:H62 D61:D62 H46 H58 H4 H39 H34 H53:H56 H8:H11 D6:D20 H15:H20 D22 H22:H25 D31 H27 D24:D28 H30:H31 D46 D50 D53:D56" xr:uid="{5789D51B-BE09-4961-8904-612C312C2A15}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3" xr:uid="{E7F500A5-8E86-461A-A89A-7121CFD091D5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3" xr:uid="{5B491DD1-CFBA-420D-BDE4-8CB250314891}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3" xr:uid="{90A39978-894D-4F6E-B39A-5DE65D7827BD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3" xr:uid="{26B1AF4D-B4BB-472A-84CF-0F07606FC072}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3" xr:uid="{FE5CA386-B9FF-4B55-BBD1-D9BAA2009B94}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3" xr:uid="{32FD5351-F366-47F4-A7C9-50D47A48A2FF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3" xr:uid="{7D0F6176-90C3-45D6-B792-4B70427E0031}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="A1" xr:uid="{081B76FE-93CE-499C-9F57-91D1642267D2}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F9:F17 F124 F105:F106 F95 F23:F28 F86:F89 F81:F83 F61:F62 F46 F30 F58 F6:F7 F20 F36:F37 F39 F55 F53"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G15 G18:G20 G46 G124 G105:G106 G95 G86:G89 G81:G83 G61:G62 G58 G22:G28 G36:G37 G39 G53:G56"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="D58 D124 H124 D105:D106 H105:H106 D95 H95 H86:H89 D86:D89 D36:D37 H81:H83 D81:D83 H61:H62 D61:D62 H46 H58 H4 H39 H34 H53:H56 H8:H11 D6:D20 H15:H20 D22 H22:H25 D31 H27 D24:D28 H30:H31 D46 D50 D53:D56"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="A1"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q9" r:id="rId1" location="tab_costs" xr:uid="{8F7B7608-5C34-4905-A60D-30DA75A2890D}"/>
-    <hyperlink ref="R9" r:id="rId2" xr:uid="{0182BEED-7A97-43F5-A160-842D067C2BFB}"/>
-    <hyperlink ref="R29" r:id="rId3" xr:uid="{618A4F82-539E-475A-BACE-CC787EF9F34A}"/>
-    <hyperlink ref="Q29" r:id="rId4" location="tab_costs" xr:uid="{D1F66BF9-32EF-44F9-A94C-D6D73CE7A24C}"/>
-    <hyperlink ref="Q47" r:id="rId5" location="tab_costs" xr:uid="{9F248DEF-6C47-48EB-8769-1E275A6C4894}"/>
-    <hyperlink ref="R47" r:id="rId6" xr:uid="{8FA9ED2F-2775-420D-AED1-F2EE8EFD2710}"/>
-    <hyperlink ref="R48" r:id="rId7" xr:uid="{9AD306D9-5A6A-4D51-B2BB-A4FA583F5F61}"/>
-    <hyperlink ref="R5" r:id="rId8" xr:uid="{6580805B-79D2-44E4-AEE5-5A22AFA31D9F}"/>
-    <hyperlink ref="Q5" r:id="rId9" location="tab_costs" xr:uid="{3FC790C7-0BAF-4309-9727-5350A783C35D}"/>
-    <hyperlink ref="R7" r:id="rId10" xr:uid="{8D6282EA-23B6-4022-B636-C23076E5E7FD}"/>
-    <hyperlink ref="Q7" r:id="rId11" location="tab_registration" xr:uid="{6F9E78CF-53DC-4220-90B3-634791B49B7C}"/>
-    <hyperlink ref="Q14" r:id="rId12" location="tab_registration" xr:uid="{63283D9D-DE58-4907-9E16-13854DF6A267}"/>
-    <hyperlink ref="R14" r:id="rId13" xr:uid="{1D0E95D1-EC4C-4C07-86D3-F67577C64F05}"/>
-    <hyperlink ref="R17" r:id="rId14" location="aaaaaaaaaaapzpd" xr:uid="{DAA0B559-52F4-427C-A2B9-85BDB8B5B364}"/>
-    <hyperlink ref="Q17" r:id="rId15" location="tab_costs" xr:uid="{D73C04E4-CFAA-4272-BD38-2C1A368D7FD8}"/>
-    <hyperlink ref="R15" r:id="rId16" xr:uid="{4D58AB1B-E97B-467E-A1D9-553D7EFB071E}"/>
-    <hyperlink ref="Q15" r:id="rId17" location="tab_overview" xr:uid="{FCE96EC9-F735-4D57-8C5F-167D61DDAB19}"/>
-    <hyperlink ref="R16" r:id="rId18" xr:uid="{BA1D8614-BBF8-474C-9461-F29607560833}"/>
-    <hyperlink ref="Q16" r:id="rId19" xr:uid="{2D132137-B40E-4010-A326-2A7B14D03DCE}"/>
-    <hyperlink ref="R44" r:id="rId20" xr:uid="{53858A60-9EBD-4334-A0AB-2DD3228DAC9A}"/>
-    <hyperlink ref="Q44" r:id="rId21" xr:uid="{B7D84843-77D8-4AEA-BF68-CEBA2D9D876B}"/>
-    <hyperlink ref="R11" r:id="rId22" xr:uid="{F6C42501-BC66-4C7A-A776-39B2BA25FF67}"/>
-    <hyperlink ref="Q11" r:id="rId23" location="tab_registration" xr:uid="{E706FCCA-33B5-4191-B1F2-4398991B2B9D}"/>
-    <hyperlink ref="R23" r:id="rId24" location="factsheet" xr:uid="{260A8C5A-B13A-4F2D-BEBA-A004580775B5}"/>
-    <hyperlink ref="Q23" r:id="rId25" xr:uid="{0775175C-6113-4DBA-B030-12E282A8F430}"/>
-    <hyperlink ref="R24" r:id="rId26" location="factsheet" xr:uid="{DED59A20-1717-4C92-BAA9-856A69AD4688}"/>
-    <hyperlink ref="Q24" r:id="rId27" xr:uid="{CAAFE401-65A1-49FF-AC67-711BFA1CD1FF}"/>
-    <hyperlink ref="R42" r:id="rId28" xr:uid="{97DDF5BA-5FFE-4904-8106-FD2EA823B2B6}"/>
-    <hyperlink ref="Q42" r:id="rId29" location="tab_overview" xr:uid="{02DCB70E-D33D-4BE5-9D86-E1D033E660BB}"/>
-    <hyperlink ref="Q51" r:id="rId30" location="tab_detail" xr:uid="{736B53E9-34B9-4697-AD26-8C74BCB91610}"/>
-    <hyperlink ref="R51" r:id="rId31" xr:uid="{95E7A92D-A21B-4A00-8C03-EB9731DBDB7E}"/>
-    <hyperlink ref="R46" r:id="rId32" xr:uid="{4C0E7F84-5515-4929-98CA-093A96575F88}"/>
-    <hyperlink ref="O46" r:id="rId33" xr:uid="{17AADBCC-4E8D-4215-9C98-2CD14416D0EA}"/>
-    <hyperlink ref="R6" r:id="rId34" xr:uid="{42CD4C8D-1099-419C-B1CE-01E1AFC78FD0}"/>
-    <hyperlink ref="Q6" r:id="rId35" xr:uid="{FA227841-6F97-4A4C-9605-E72120E75A03}"/>
-    <hyperlink ref="Q18" r:id="rId36" location="tab_costs" xr:uid="{97493148-DE65-4DA0-B9CD-8C26903E7B10}"/>
-    <hyperlink ref="R18" r:id="rId37" xr:uid="{6FB77E24-8A5F-4C14-A3EE-5EB46B7350FB}"/>
-    <hyperlink ref="R49" r:id="rId38" xr:uid="{F7144175-8624-451D-ACD3-BA44EF02C925}"/>
-    <hyperlink ref="Q49" r:id="rId39" xr:uid="{3166F1A5-0583-4D53-BD57-394B72893007}"/>
-    <hyperlink ref="R13" r:id="rId40" xr:uid="{5F57F23B-7E57-4886-B2CA-1C2FEBDB60FC}"/>
-    <hyperlink ref="Q13" r:id="rId41" location="tab_costs" xr:uid="{24AAAEE3-1546-47FE-B10E-7D218F1ABF5F}"/>
-    <hyperlink ref="R50" r:id="rId42" xr:uid="{016144AB-5C92-4712-BE62-75EF2BBBD02D}"/>
-    <hyperlink ref="Q50" r:id="rId43" location="tab_costs" xr:uid="{7D767E40-BCE9-4304-8734-2AAC864EEF91}"/>
-    <hyperlink ref="R52" r:id="rId44" xr:uid="{9033B3B2-E37D-4C8B-B2A2-6217FF5C7DA8}"/>
-    <hyperlink ref="Q52" r:id="rId45" location="tab_costs" xr:uid="{CFDDAB7B-6EA2-49FB-A7A9-A61058F211BA}"/>
-    <hyperlink ref="R37" r:id="rId46" xr:uid="{173B77BE-4C61-47DB-837E-ED3455CC0ED1}"/>
-    <hyperlink ref="Q37" r:id="rId47" location="tab_registration" xr:uid="{330404D2-E424-45C9-925D-3CE379CBED77}"/>
-    <hyperlink ref="R45" r:id="rId48" xr:uid="{237653DC-1060-4572-9B0C-B6D88F023561}"/>
-    <hyperlink ref="Q45" r:id="rId49" xr:uid="{18CA3AA6-8E4B-427A-ACF6-811C145BC17D}"/>
-    <hyperlink ref="Q27" r:id="rId50" location="tab_registration" xr:uid="{D969BD69-0051-4F56-ACE9-6DEC7DB7E83C}"/>
-    <hyperlink ref="R27" r:id="rId51" xr:uid="{0F4016A4-CA34-4A9E-8B8C-FFD532D5A750}"/>
-    <hyperlink ref="R26" r:id="rId52" xr:uid="{C862DD97-08D1-4802-8259-B4FAC7A736AF}"/>
-    <hyperlink ref="Q26" r:id="rId53" location="tab_registration" xr:uid="{AAAAA1F9-10EB-4723-8BAA-E6A4087A243B}"/>
-    <hyperlink ref="R28" r:id="rId54" xr:uid="{0B180D12-E71B-4EFE-B312-D9367D24F454}"/>
-    <hyperlink ref="Q28" r:id="rId55" location="tab_costs" xr:uid="{045A0E42-20D1-4291-89C5-4508B9FE5876}"/>
-    <hyperlink ref="Q21" r:id="rId56" location="tab_registration" xr:uid="{C06B77A0-2176-4449-8074-F492E1252622}"/>
-    <hyperlink ref="R21" r:id="rId57" xr:uid="{61935232-85C8-4FA2-95B9-FAA1EB7EA638}"/>
-    <hyperlink ref="R41" r:id="rId58" xr:uid="{E9E27E51-18EA-4FFA-9DE6-51AFC01E573C}"/>
-    <hyperlink ref="Q41" r:id="rId59" location="tab_costs" xr:uid="{4C86A3AA-1A6C-4F91-9642-4AC017C3B4F0}"/>
-    <hyperlink ref="Q40" r:id="rId60" location="tab_costs" xr:uid="{E71DA67D-421A-4365-A10D-F7BBA3750E0D}"/>
-    <hyperlink ref="R40" r:id="rId61" xr:uid="{170698E9-54AB-4756-8177-6EE402FA1941}"/>
-    <hyperlink ref="R25" r:id="rId62" xr:uid="{906B8A4B-C8B1-4873-96AA-F8011A42CC0E}"/>
-    <hyperlink ref="Q25" r:id="rId63" location="tab_costs" xr:uid="{E046CA37-C8C8-474C-8E18-EC431ECC5E48}"/>
-    <hyperlink ref="R12" r:id="rId64" xr:uid="{AB9A5232-280B-403B-A46A-AE9F505CB248}"/>
-    <hyperlink ref="Q12" r:id="rId65" location="tab_registration" xr:uid="{F1F92847-BBAA-4CCA-A5DA-5E9F8A7B3236}"/>
-    <hyperlink ref="Q20" r:id="rId66" xr:uid="{684DD07F-905D-45FE-912F-11C89D15ACE5}"/>
-    <hyperlink ref="R20" r:id="rId67" xr:uid="{44389C09-FFFE-4590-AEBD-96D1E153CF52}"/>
-    <hyperlink ref="R19" r:id="rId68" xr:uid="{2B1E2AF9-E132-41E8-AD49-D0C862463DCA}"/>
-    <hyperlink ref="Q19" r:id="rId69" location="tab_costs" xr:uid="{84C2BAE5-1B6D-46A5-806A-D70CF6616BEB}"/>
-    <hyperlink ref="Q22" r:id="rId70" location="tab_costs" xr:uid="{94C33DBB-DF1E-4399-8E93-6802EC057C7D}"/>
-    <hyperlink ref="R22" r:id="rId71" xr:uid="{938FDED7-0838-486C-B386-6D1CC782238C}"/>
-    <hyperlink ref="R30" r:id="rId72" xr:uid="{E39A6379-5C6C-47E1-B16F-120B18057BD5}"/>
-    <hyperlink ref="R31" r:id="rId73" xr:uid="{ECD1C8A6-3AFF-4CEC-B273-02137E831A28}"/>
-    <hyperlink ref="Q30" r:id="rId74" xr:uid="{AE6FA512-AE63-4869-969B-41FE6C716C54}"/>
-    <hyperlink ref="Q31" r:id="rId75" xr:uid="{1FF89916-8015-46FA-A779-D613DCE699F8}"/>
-    <hyperlink ref="R36" r:id="rId76" xr:uid="{4073356C-9016-4FF3-A941-9E85DDC6BAF0}"/>
-    <hyperlink ref="Q36" r:id="rId77" location="tab_registration" xr:uid="{B1532A12-4A6C-4118-A8CF-52E0443D28C4}"/>
-    <hyperlink ref="Q4" r:id="rId78" location="tab_costs" xr:uid="{AE1F20F9-7A7C-4AE0-B731-37E8FD0CE54D}"/>
-    <hyperlink ref="R4" r:id="rId79" xr:uid="{3228253A-CC65-405C-AD3E-163855C775DA}"/>
-    <hyperlink ref="Q38" r:id="rId80" xr:uid="{D78B9604-2AF1-477A-ADBB-1D704FE9CE19}"/>
-    <hyperlink ref="R38" r:id="rId81" xr:uid="{809F5125-4A9A-414F-A39C-54BC796C1136}"/>
-    <hyperlink ref="R53" r:id="rId82" xr:uid="{36EDD983-6043-42A2-B08C-73C91A1EBEC0}"/>
-    <hyperlink ref="Q53" r:id="rId83" location="tab_registration" xr:uid="{36150891-9A5B-474D-A6D1-30EB495143CE}"/>
-    <hyperlink ref="R10" r:id="rId84" xr:uid="{6EE8567B-2B5C-44D3-A52A-65B92B93E4D2}"/>
-    <hyperlink ref="Q10" r:id="rId85" location="tab_registration" xr:uid="{56A98A41-F748-4E9F-BE8C-CE9DC41F9CFD}"/>
-    <hyperlink ref="Q32" r:id="rId86" location="tab_costs" xr:uid="{8B107B5A-EEC0-4471-86F7-8A427612D1A6}"/>
-    <hyperlink ref="R32" r:id="rId87" xr:uid="{F739E0E9-5774-47DE-859C-7F51C8223179}"/>
-    <hyperlink ref="Q33" r:id="rId88" location="tab_registration" xr:uid="{94D077FE-65AE-4808-9D75-A91A333981FC}"/>
-    <hyperlink ref="R8" r:id="rId89" xr:uid="{D2211F35-AFEB-4DB6-B9FE-DD9E8E3A99D0}"/>
-    <hyperlink ref="R35" r:id="rId90" xr:uid="{8CFC7386-5137-4EB4-A230-B8FDF9749098}"/>
-    <hyperlink ref="R34" r:id="rId91" xr:uid="{D043BB81-860A-47E5-9DDB-62CC9FD2328E}"/>
+    <hyperlink ref="Q4" r:id="rId1" location="tab_costs"/>
+    <hyperlink ref="R4" r:id="rId2"/>
+    <hyperlink ref="R34" r:id="rId3"/>
+    <hyperlink ref="R35" r:id="rId4"/>
+    <hyperlink ref="R8" r:id="rId5"/>
+    <hyperlink ref="Q33" r:id="rId6" location="tab_registration"/>
+    <hyperlink ref="R32" r:id="rId7"/>
+    <hyperlink ref="Q32" r:id="rId8" location="tab_costs"/>
+    <hyperlink ref="Q10" r:id="rId9" location="tab_registration"/>
+    <hyperlink ref="R10" r:id="rId10"/>
+    <hyperlink ref="Q53" r:id="rId11" location="tab_registration"/>
+    <hyperlink ref="R53" r:id="rId12"/>
+    <hyperlink ref="R38" r:id="rId13"/>
+    <hyperlink ref="Q38" r:id="rId14"/>
+    <hyperlink ref="Q36" r:id="rId15" location="tab_registration"/>
+    <hyperlink ref="R36" r:id="rId16"/>
+    <hyperlink ref="Q31" r:id="rId17"/>
+    <hyperlink ref="Q30" r:id="rId18"/>
+    <hyperlink ref="R31" r:id="rId19"/>
+    <hyperlink ref="R30" r:id="rId20"/>
+    <hyperlink ref="R22" r:id="rId21"/>
+    <hyperlink ref="Q22" r:id="rId22" location="tab_costs"/>
+    <hyperlink ref="Q19" r:id="rId23" location="tab_costs"/>
+    <hyperlink ref="R19" r:id="rId24"/>
+    <hyperlink ref="R20" r:id="rId25"/>
+    <hyperlink ref="Q20" r:id="rId26"/>
+    <hyperlink ref="Q12" r:id="rId27" location="tab_registration"/>
+    <hyperlink ref="R12" r:id="rId28"/>
+    <hyperlink ref="Q25" r:id="rId29" location="tab_costs"/>
+    <hyperlink ref="R25" r:id="rId30"/>
+    <hyperlink ref="R40" r:id="rId31"/>
+    <hyperlink ref="Q40" r:id="rId32" location="tab_costs"/>
+    <hyperlink ref="Q41" r:id="rId33" location="tab_costs"/>
+    <hyperlink ref="R41" r:id="rId34"/>
+    <hyperlink ref="R21" r:id="rId35"/>
+    <hyperlink ref="Q21" r:id="rId36" location="tab_registration"/>
+    <hyperlink ref="Q28" r:id="rId37" location="tab_costs"/>
+    <hyperlink ref="R28" r:id="rId38"/>
+    <hyperlink ref="Q26" r:id="rId39" location="tab_registration"/>
+    <hyperlink ref="R26" r:id="rId40"/>
+    <hyperlink ref="R27" r:id="rId41"/>
+    <hyperlink ref="Q27" r:id="rId42" location="tab_registration"/>
+    <hyperlink ref="Q45" r:id="rId43"/>
+    <hyperlink ref="R45" r:id="rId44"/>
+    <hyperlink ref="Q37" r:id="rId45" location="tab_registration"/>
+    <hyperlink ref="R37" r:id="rId46"/>
+    <hyperlink ref="Q52" r:id="rId47" location="tab_costs"/>
+    <hyperlink ref="R52" r:id="rId48"/>
+    <hyperlink ref="Q50" r:id="rId49" location="tab_costs"/>
+    <hyperlink ref="R50" r:id="rId50"/>
+    <hyperlink ref="Q13" r:id="rId51" location="tab_costs"/>
+    <hyperlink ref="R13" r:id="rId52"/>
+    <hyperlink ref="Q49" r:id="rId53"/>
+    <hyperlink ref="R49" r:id="rId54"/>
+    <hyperlink ref="R18" r:id="rId55"/>
+    <hyperlink ref="Q18" r:id="rId56" location="tab_costs"/>
+    <hyperlink ref="Q6" r:id="rId57"/>
+    <hyperlink ref="R6" r:id="rId58"/>
+    <hyperlink ref="O46" r:id="rId59"/>
+    <hyperlink ref="R46" r:id="rId60"/>
+    <hyperlink ref="R51" r:id="rId61"/>
+    <hyperlink ref="Q51" r:id="rId62" location="tab_detail"/>
+    <hyperlink ref="Q42" r:id="rId63" location="tab_overview"/>
+    <hyperlink ref="R42" r:id="rId64"/>
+    <hyperlink ref="Q24" r:id="rId65"/>
+    <hyperlink ref="R24" r:id="rId66" location="factsheet"/>
+    <hyperlink ref="Q23" r:id="rId67"/>
+    <hyperlink ref="R23" r:id="rId68" location="factsheet"/>
+    <hyperlink ref="Q11" r:id="rId69" location="tab_registration"/>
+    <hyperlink ref="R11" r:id="rId70"/>
+    <hyperlink ref="Q44" r:id="rId71"/>
+    <hyperlink ref="R44" r:id="rId72"/>
+    <hyperlink ref="Q16" r:id="rId73"/>
+    <hyperlink ref="R16" r:id="rId74"/>
+    <hyperlink ref="Q15" r:id="rId75" location="tab_overview"/>
+    <hyperlink ref="R15" r:id="rId76"/>
+    <hyperlink ref="Q17" r:id="rId77" location="tab_costs"/>
+    <hyperlink ref="R17" r:id="rId78" location="aaaaaaaaaaapzpd"/>
+    <hyperlink ref="R14" r:id="rId79"/>
+    <hyperlink ref="Q14" r:id="rId80" location="tab_registration"/>
+    <hyperlink ref="Q7" r:id="rId81" location="tab_registration"/>
+    <hyperlink ref="R7" r:id="rId82"/>
+    <hyperlink ref="Q5" r:id="rId83" location="tab_costs"/>
+    <hyperlink ref="R5" r:id="rId84"/>
+    <hyperlink ref="R48" r:id="rId85"/>
+    <hyperlink ref="R47" r:id="rId86"/>
+    <hyperlink ref="Q47" r:id="rId87" location="tab_costs"/>
+    <hyperlink ref="Q29" r:id="rId88" location="tab_costs"/>
+    <hyperlink ref="R29" r:id="rId89"/>
+    <hyperlink ref="R9" r:id="rId90"/>
+    <hyperlink ref="Q9" r:id="rId91" location="tab_costs"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9002,4 +9310,557 @@
     <tablePart r:id="rId93"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102">
+      <c r="A1" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:102">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" spans="1:102">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:102" s="58" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="57"/>
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="57"/>
+      <c r="BU4" s="57"/>
+      <c r="BV4" s="57"/>
+      <c r="BW4" s="57"/>
+      <c r="BX4" s="57"/>
+      <c r="BY4" s="57"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="57"/>
+      <c r="CB4" s="57"/>
+      <c r="CC4" s="57"/>
+      <c r="CD4" s="57"/>
+      <c r="CE4" s="57"/>
+      <c r="CF4" s="57"/>
+      <c r="CG4" s="57"/>
+      <c r="CH4" s="57"/>
+      <c r="CI4" s="57"/>
+      <c r="CJ4" s="57"/>
+      <c r="CK4" s="57"/>
+      <c r="CL4" s="57"/>
+      <c r="CM4" s="57"/>
+      <c r="CN4" s="57"/>
+      <c r="CO4" s="57"/>
+      <c r="CP4" s="57"/>
+      <c r="CQ4" s="57"/>
+      <c r="CR4" s="57"/>
+      <c r="CS4" s="57"/>
+      <c r="CT4" s="57"/>
+      <c r="CU4" s="57"/>
+      <c r="CV4" s="57"/>
+      <c r="CW4" s="57"/>
+      <c r="CX4" s="57"/>
+    </row>
+    <row r="5" spans="1:102" s="63" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" s="63" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" s="63" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="63" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" s="63" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" s="63" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" s="63" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" s="63" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" s="63" customFormat="1"/>
+    <row r="14" spans="1:102" s="63" customFormat="1"/>
+    <row r="15" spans="1:102" s="63" customFormat="1"/>
+    <row r="16" spans="1:102" s="63" customFormat="1"/>
+    <row r="17" spans="11:11" s="63" customFormat="1"/>
+    <row r="18" spans="11:11" s="63" customFormat="1"/>
+    <row r="19" spans="11:11" s="63" customFormat="1"/>
+    <row r="20" spans="11:11" s="63" customFormat="1"/>
+    <row r="21" spans="11:11" s="63" customFormat="1"/>
+    <row r="22" spans="11:11" s="63" customFormat="1"/>
+    <row r="23" spans="11:11" s="63" customFormat="1"/>
+    <row r="24" spans="11:11" s="63" customFormat="1"/>
+    <row r="25" spans="11:11" s="63" customFormat="1"/>
+    <row r="26" spans="11:11" s="63" customFormat="1"/>
+    <row r="27" spans="11:11" s="63" customFormat="1"/>
+    <row r="28" spans="11:11" s="63" customFormat="1"/>
+    <row r="29" spans="11:11" s="63" customFormat="1"/>
+    <row r="30" spans="11:11" s="62" customFormat="1">
+      <c r="K30" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L3"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="G4"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2" location="tab_overview"/>
+    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4" location="tab_overview"/>
+    <hyperlink ref="L7" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6" location="tab_overview"/>
+    <hyperlink ref="L8" r:id="rId7" location="international"/>
+    <hyperlink ref="K8" r:id="rId8" location="overview"/>
+    <hyperlink ref="K9" r:id="rId9" location="overview"/>
+    <hyperlink ref="L10" r:id="rId10"/>
+    <hyperlink ref="K10" r:id="rId11" location="overview"/>
+    <hyperlink ref="K11" r:id="rId12" location="overview"/>
+    <hyperlink ref="L11" r:id="rId13"/>
+    <hyperlink ref="L12" r:id="rId14"/>
+    <hyperlink ref="K12" r:id="rId15" location="overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>